--- a/DATA_goal/Junction_Flooding_456.xlsx
+++ b/DATA_goal/Junction_Flooding_456.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -655,103 +655,103 @@
         <v>44787.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>4.31</v>
+        <v>43.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44787.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.82</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.33</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44787.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.68</v>
+        <v>26.8</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44787.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>78.29000000000001</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_456.xlsx
+++ b/DATA_goal/Junction_Flooding_456.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44787.54861111111</v>
+        <v>45137.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.79</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.48</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.59</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.04</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.1</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.95</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44787.55555555555</v>
+        <v>45137.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.01</v>
+        <v>17.722</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.66</v>
+        <v>12.713</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.821</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.22</v>
+        <v>38.836</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.02</v>
+        <v>30.739</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.54</v>
+        <v>13.829</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.46</v>
+        <v>52.446</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>21.524</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.02</v>
+        <v>9.318</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.85</v>
+        <v>13.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.19</v>
+        <v>15.408</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.55</v>
+        <v>16.338</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.82</v>
+        <v>4.468</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.06</v>
+        <v>13.911</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.01</v>
+        <v>19.603</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.27</v>
+        <v>12.011</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.475</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.46</v>
+        <v>1.063</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>83.81</v>
+        <v>204.414</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.15</v>
+        <v>38.895</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.05</v>
+        <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.73</v>
+        <v>25.763</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.79</v>
+        <v>13.462</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.8</v>
+        <v>2.449</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.56</v>
+        <v>25.919</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.28</v>
+        <v>11.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.58</v>
+        <v>10.191</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.2</v>
+        <v>12.018</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.82</v>
+        <v>15.909</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.33</v>
+        <v>48.023</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.39</v>
+        <v>7.053</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.63</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44787.5625</v>
+        <v>45137.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.1</v>
+        <v>6.196</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.74</v>
+        <v>4.286</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.967</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.29</v>
+        <v>13.738</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.97</v>
+        <v>10.405</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.91</v>
+        <v>4.787</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.51</v>
+        <v>23.264</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.09</v>
+        <v>7.562</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.55</v>
+        <v>3.206</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.76</v>
+        <v>4.504</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.82</v>
+        <v>5.409</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.93</v>
+        <v>5.773</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.68</v>
+        <v>1.576</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.27</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.91</v>
+        <v>6.846</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.38</v>
+        <v>4.413</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.918</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.511</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.12</v>
+        <v>13.881</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.38</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.77</v>
+        <v>9.026999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.21</v>
+        <v>4.653</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.3</v>
+        <v>1.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.91</v>
+        <v>10.849</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.42</v>
+        <v>3.985</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.77</v>
+        <v>3.678</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.01</v>
+        <v>4.327</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.14</v>
+        <v>5.479</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.02</v>
+        <v>21.649</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.36</v>
+        <v>2.381</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.39</v>
+        <v>5.642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44787.56944444445</v>
+        <v>45137.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.37</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.85</v>
+        <v>8.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.96</v>
+        <v>24.16</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.55</v>
+        <v>19.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.39</v>
+        <v>8.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.44</v>
+        <v>32.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.43</v>
+        <v>13.38</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.86</v>
+        <v>5.83</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.17</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.52</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.85</v>
+        <v>10.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.77</v>
+        <v>2.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.64</v>
+        <v>8.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.74</v>
+        <v>12.2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.31</v>
+        <v>7.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.29000000000001</v>
+        <v>124.27</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.35</v>
+        <v>24.12</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.42</v>
+        <v>7.98</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.81</v>
+        <v>16.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.55</v>
+        <v>8.42</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>15.84</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.28</v>
+        <v>7.05</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.14</v>
+        <v>6.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.85</v>
+        <v>7.44</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.97</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.76</v>
+        <v>29.57</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.11</v>
+        <v>4.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44787.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.66</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.93</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.77</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.02</v>
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_456.xlsx
+++ b/DATA_goal/Junction_Flooding_456.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45137.50694444445</v>
+        <v>44787.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.835</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.791</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.698</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.243</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.166</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.51</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.958</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.033</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.29</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.735</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.533</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.25</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.739</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.655</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.06</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.282</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.096</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.025</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.298</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.758</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.812</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.713</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.837</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.288</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.641999999999999</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.303</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.679</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.311</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.418</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.68</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.449</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45137.51388888889</v>
+        <v>44787.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.722</v>
+        <v>8.012</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.713</v>
+        <v>6.663</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>15.224</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>15.016</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>5.538</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>8.705</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>4.015</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>6.854</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>7.192</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.547</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>1.821</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>38.836</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>30.739</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>13.829</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>52.446</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>21.524</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>9.318</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>15.408</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>16.338</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>4.468</v>
-      </c>
       <c r="O3" s="4" t="n">
-        <v>13.911</v>
+        <v>6.057</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.603</v>
+        <v>8.010999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.011</v>
+        <v>4.269</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.475</v>
+        <v>0.652</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.063</v>
+        <v>0.456</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>204.414</v>
+        <v>83.812</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.895</v>
+        <v>16.153</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.84</v>
+        <v>6.051</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.763</v>
+        <v>11.729</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.462</v>
+        <v>5.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.449</v>
+        <v>0.802</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.919</v>
+        <v>9.555999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.342</v>
+        <v>4.285</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.191</v>
+        <v>4.585</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.018</v>
+        <v>5.199</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.909</v>
+        <v>7.817</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>48.023</v>
+        <v>17.326</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.053</v>
+        <v>3.392</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.053</v>
+        <v>6.628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45137.52083333334</v>
+        <v>44787.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.196</v>
+        <v>3.101</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.286</v>
+        <v>2.743</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.967</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.738</v>
+        <v>5.295</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.405</v>
+        <v>5.969</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.787</v>
+        <v>1.906</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.264</v>
+        <v>11.51</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.562</v>
+        <v>3.091</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.206</v>
+        <v>1.547</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.504</v>
+        <v>2.762</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.409</v>
+        <v>2.821</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.773</v>
+        <v>2.933</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.576</v>
+        <v>0.676</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.888</v>
+        <v>2.273</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.846</v>
+        <v>2.909</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.413</v>
+        <v>1.383</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.918</v>
+        <v>0.433</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.511</v>
+        <v>0.259</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.09999999999999</v>
+        <v>26.8</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.881</v>
+        <v>6.121</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.511</v>
+        <v>2.382</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.026999999999999</v>
+        <v>4.768</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.653</v>
+        <v>2.207</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.06</v>
+        <v>0.302</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.849</v>
+        <v>4.912</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.985</v>
+        <v>1.42</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.678</v>
+        <v>1.773</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.327</v>
+        <v>2.011</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.479</v>
+        <v>3.137</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.649</v>
+        <v>10.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.381</v>
+        <v>1.358</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.642</v>
+        <v>2.393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45137.52777777778</v>
+        <v>44787.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11</v>
+        <v>7.371</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.01</v>
+        <v>5.846</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.148</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.16</v>
+        <v>14.964</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.25</v>
+        <v>13.545</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.59</v>
+        <v>5.387</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.63</v>
+        <v>20.441</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.38</v>
+        <v>8.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.83</v>
+        <v>3.857</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>6.175</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>6.517</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.24</v>
+        <v>6.848</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.78</v>
+        <v>1.772</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.65</v>
+        <v>5.644</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.2</v>
+        <v>7.736</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.45</v>
+        <v>4.305</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.373</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.351</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.27</v>
+        <v>78.29300000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.12</v>
+        <v>15.353</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.98</v>
+        <v>5.417</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.02</v>
+        <v>10.811</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.42</v>
+        <v>5.551</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.45</v>
+        <v>0.743</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.84</v>
+        <v>9.526999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.05</v>
+        <v>4.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.33</v>
+        <v>4.145</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.44</v>
+        <v>4.849</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>6.974</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.57</v>
+        <v>17.757</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.4</v>
+        <v>3.105</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.98</v>
+        <v>6.346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44787.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>152.75</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.02</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_456.xlsx
+++ b/DATA_goal/Junction_Flooding_456.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44787.54861111111</v>
+        <v>45137.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.928</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.344</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.978</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.253</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.511</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.567</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.041</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.748</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.048</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.182</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.791</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.479</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.593</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.503</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.042</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.417</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.098</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.946</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.645</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.748</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.484</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.765</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.536</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.068</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.612</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.035</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.082</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44787.55555555555</v>
+        <v>45137.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.012</v>
+        <v>17.722</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.663</v>
+        <v>12.713</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.073</v>
+        <v>1.821</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.224</v>
+        <v>38.836</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.016</v>
+        <v>30.739</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.538</v>
+        <v>13.829</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.46</v>
+        <v>52.446</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.705</v>
+        <v>21.524</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.015</v>
+        <v>9.318</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.854</v>
+        <v>13.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.192</v>
+        <v>15.408</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.547</v>
+        <v>16.338</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.821</v>
+        <v>4.468</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.057</v>
+        <v>13.911</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.010999999999999</v>
+        <v>19.603</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.269</v>
+        <v>12.011</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.652</v>
+        <v>1.475</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.456</v>
+        <v>1.063</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>83.812</v>
+        <v>204.414</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.153</v>
+        <v>38.895</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.051</v>
+        <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.729</v>
+        <v>25.763</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.79</v>
+        <v>13.462</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.802</v>
+        <v>2.449</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.555999999999999</v>
+        <v>25.919</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.285</v>
+        <v>11.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.585</v>
+        <v>10.191</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.199</v>
+        <v>12.018</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.817</v>
+        <v>15.909</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>17.326</v>
+        <v>48.023</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.392</v>
+        <v>7.053</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.628</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44787.5625</v>
+        <v>45137.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.101</v>
+        <v>6.196</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.743</v>
+        <v>4.286</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.967</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.295</v>
+        <v>13.738</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.969</v>
+        <v>10.405</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.906</v>
+        <v>4.787</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>11.51</v>
+        <v>23.264</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.091</v>
+        <v>7.562</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.547</v>
+        <v>3.206</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.762</v>
+        <v>4.504</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.821</v>
+        <v>5.409</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.933</v>
+        <v>5.773</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.676</v>
+        <v>1.576</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.273</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.909</v>
+        <v>6.846</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.383</v>
+        <v>4.413</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.433</v>
+        <v>0.918</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.259</v>
+        <v>0.511</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.121</v>
+        <v>13.881</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.382</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.768</v>
+        <v>9.026999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.207</v>
+        <v>4.653</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.302</v>
+        <v>1.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.912</v>
+        <v>10.849</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.42</v>
+        <v>3.985</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.773</v>
+        <v>3.678</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.011</v>
+        <v>4.327</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.137</v>
+        <v>5.479</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>10.02</v>
+        <v>21.649</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.358</v>
+        <v>2.381</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.393</v>
+        <v>5.642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44787.56944444445</v>
+        <v>45137.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.371</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.846</v>
+        <v>8.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.148</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.964</v>
+        <v>24.16</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.545</v>
+        <v>19.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.387</v>
+        <v>8.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.441</v>
+        <v>32.63</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.43</v>
+        <v>13.38</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.857</v>
+        <v>5.83</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.175</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.517</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.848</v>
+        <v>10.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.772</v>
+        <v>2.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.644</v>
+        <v>8.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.736</v>
+        <v>12.2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.305</v>
+        <v>7.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.373</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.351</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.29300000000001</v>
+        <v>124.27</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.353</v>
+        <v>24.12</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.417</v>
+        <v>7.98</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.811</v>
+        <v>16.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.551</v>
+        <v>8.42</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.743</v>
+        <v>1.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.526999999999999</v>
+        <v>15.84</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.28</v>
+        <v>7.05</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.145</v>
+        <v>6.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.849</v>
+        <v>7.44</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.974</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.757</v>
+        <v>29.57</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.105</v>
+        <v>4.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.346</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44787.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.66</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.93</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.75</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>29.13</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.09</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.77</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.02</v>
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>
